--- a/02-lab/output/excel/gradient_descent_method_custom_point.xlsx
+++ b/02-lab/output/excel/gradient_descent_method_custom_point.xlsx
@@ -1,23 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <workbookPr/>
+  <fileVersion appName="Calc"/>
+  <workbookPr date1904="false" showObjects="all" backupFile="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725" fullCalcOnLoad="true"/>
+  <calcPr fullCalcOnLoad="true" refMode="A1" iterate="false" iterateCount="100" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <fonts count="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -29,7 +56,7 @@
     </fill>
   </fills>
   <borders count="2">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -38,29 +65,173 @@
     </border>
     <border/>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="FFFFFF"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18A303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369A3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A33E03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8E03A3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="C99C00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="C9211E"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000EE"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551A8B"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="true"/>
-    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="1" max="1" width="8.140625" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="2" max="2" width="8.140625" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="3" max="3" width="8.140625" customWidth="true"/>
+    <col min="4" max="4" width="8.140625" customWidth="true"/>
+    <col min="5" max="5" width="8.140625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -70,415 +241,1077 @@
       <c r="B1" s="0">
         <v>0.5</v>
       </c>
+      <c r="C1" s="0">
+        <v>-0.0025000000000000001</v>
+      </c>
+      <c r="D1" s="0">
+        <v>-0.018750000000000003</v>
+      </c>
+      <c r="E1" s="0">
+        <v>0.0012500000000000011</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.149999875</v>
+        <v>0.13937500000000003</v>
       </c>
       <c r="B2" s="0">
-        <v>0.496666675</v>
+        <v>0.49737500000000001</v>
+      </c>
+      <c r="C2" s="0">
+        <v>-0.0031476357446289065</v>
+      </c>
+      <c r="D2" s="0">
+        <v>-0.013918728515624992</v>
+      </c>
+      <c r="E2" s="0">
+        <v>0.0023367089843750015</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.18366279437952887</v>
+        <v>0.16860432988281251</v>
       </c>
       <c r="B3" s="0">
-        <v>0.48950003763885591</v>
+        <v>0.49246791113281252</v>
+      </c>
+      <c r="C3" s="0">
+        <v>-0.0035177406219014532</v>
+      </c>
+      <c r="D3" s="0">
+        <v>-0.010484852918328021</v>
+      </c>
+      <c r="E3" s="0">
+        <v>0.0032359418078865484</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.20702402306535811</v>
+        <v>0.19062252101130137</v>
       </c>
       <c r="B4" s="0">
-        <v>0.47954169014043962</v>
+        <v>0.48567243333625076</v>
+      </c>
+      <c r="C4" s="0">
+        <v>-0.0037460808339363511</v>
+      </c>
+      <c r="D4" s="0">
+        <v>-0.0080793141971246471</v>
+      </c>
+      <c r="E4" s="0">
+        <v>0.0038593289702376632</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.22403336644749997</v>
+        <v>0.20758908082526312</v>
       </c>
       <c r="B5" s="0">
-        <v>0.46807897783006597</v>
+        <v>0.47756784249875167</v>
+      </c>
+      <c r="C5" s="0">
+        <v>-0.0039016089793294361</v>
+      </c>
+      <c r="D5" s="0">
+        <v>-0.0064026324247249272</v>
+      </c>
+      <c r="E5" s="0">
+        <v>0.0042224855705817882</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.23711681040896757</v>
+        <v>0.22103460891718546</v>
       </c>
       <c r="B6" s="0">
-        <v>0.4561162740144174</v>
+        <v>0.46870062280052993</v>
+      </c>
+      <c r="C6" s="0">
+        <v>-0.0040178922489308919</v>
+      </c>
+      <c r="D6" s="0">
+        <v>-0.0052277789083765638</v>
+      </c>
+      <c r="E6" s="0">
+        <v>0.0043774758927375562</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.24770629941977207</v>
+        <v>0.23201294462477626</v>
       </c>
       <c r="B7" s="0">
-        <v>0.44431188902232122</v>
+        <v>0.45950792342578106</v>
+      </c>
+      <c r="C7" s="0">
+        <v>-0.0041109389152395905</v>
+      </c>
+      <c r="D7" s="0">
+        <v>-0.0043921023687305272</v>
+      </c>
+      <c r="E7" s="0">
+        <v>0.0043800793291933239</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.2566333193221273</v>
+        <v>0.24123635959911036</v>
       </c>
       <c r="B8" s="0">
-        <v>0.43305531083439669</v>
+        <v>0.45030975683447511</v>
+      </c>
+      <c r="C8" s="0">
+        <v>-0.0041884600606988918</v>
+      </c>
+      <c r="D8" s="0">
+        <v>-0.0037835883590915317</v>
+      </c>
+      <c r="E8" s="0">
+        <v>0.0042775993068674585</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.26438182156865897</v>
+        <v>0.24918189515320258</v>
       </c>
       <c r="B9" s="0">
-        <v>0.42255527541682442</v>
+        <v>0.44132679829005345</v>
+      </c>
+      <c r="C9" s="0">
+        <v>-0.0042543699407704208</v>
+      </c>
+      <c r="D9" s="0">
+        <v>-0.0033270199301853251</v>
+      </c>
+      <c r="E9" s="0">
+        <v>0.004106377209820055</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.27123862035260021</v>
+        <v>0.25616863700659176</v>
       </c>
       <c r="B10" s="0">
-        <v>0.41290603525211977</v>
+        <v>0.43270340614943131</v>
+      </c>
+      <c r="C10" s="0">
+        <v>-0.0043108739219669002</v>
+      </c>
+      <c r="D10" s="0">
+        <v>-0.0029726356116615768</v>
+      </c>
+      <c r="E10" s="0">
+        <v>0.0038929771427552787</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.27737944321063829</v>
+        <v>0.26241117179108109</v>
       </c>
       <c r="B11" s="0">
-        <v>0.40413142535794072</v>
+        <v>0.42452815414964523</v>
+      </c>
+      <c r="C11" s="0">
+        <v>-0.0043594062947900948</v>
+      </c>
+      <c r="D11" s="0">
+        <v>-0.0026877674633142626</v>
+      </c>
+      <c r="E11" s="0">
+        <v>0.0036562890083891783</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.28291733499810268</v>
+        <v>0.26805548346404107</v>
       </c>
       <c r="B12" s="0">
-        <v>0.39621297455257726</v>
+        <v>0.41684994723202795</v>
+      </c>
+      <c r="C12" s="0">
+        <v>-0.0044010406280703702</v>
+      </c>
+      <c r="D12" s="0">
+        <v>-0.0024510300562751164</v>
+      </c>
+      <c r="E12" s="0">
+        <v>0.0034095108781977829</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.28792972768195751</v>
+        <v>0.27320264658221882</v>
       </c>
       <c r="B13" s="0">
-        <v>0.38910768526634537</v>
+        <v>0.40968997438781263</v>
+      </c>
+      <c r="C13" s="0">
+        <v>-0.0044366646119373947</v>
+      </c>
+      <c r="D13" s="0">
+        <v>-0.0022484160890027943</v>
+      </c>
+      <c r="E13" s="0">
+        <v>0.003161726259901701</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.29247356792820206</v>
+        <v>0.27792432036912468</v>
       </c>
       <c r="B14" s="0">
-        <v>0.3827593210984821</v>
+        <v>0.40305034924201905</v>
+      </c>
+      <c r="C14" s="0">
+        <v>-0.0044670522695430502</v>
+      </c>
+      <c r="D14" s="0">
+        <v>-0.0020707220553315628</v>
+      </c>
+      <c r="E14" s="0">
+        <v>0.0029190745323460221</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.29659377583159402</v>
+        <v>0.28227283668532094</v>
       </c>
       <c r="B15" s="0">
-        <v>0.37710560569702284</v>
+        <v>0.39692029272409241</v>
+      </c>
+      <c r="C15" s="0">
+        <v>-0.0044928928827683914</v>
+      </c>
+      <c r="D15" s="0">
+        <v>-0.0019118675021897666</v>
+      </c>
+      <c r="E15" s="0">
+        <v>0.0026855939469314985</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.30032797212508788</v>
+        <v>0.28628775843991944</v>
       </c>
       <c r="B16" s="0">
-        <v>0.37208280392328252</v>
+        <v>0.39128054543553625</v>
+      </c>
+      <c r="C16" s="0">
+        <v>-0.0045148026803871755</v>
+      </c>
+      <c r="D16" s="0">
+        <v>-0.001767802456428505</v>
+      </c>
+      <c r="E16" s="0">
+        <v>0.0024638228425514566</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.30370911134491146</v>
+        <v>0.2900001435984193</v>
       </c>
       <c r="B17" s="0">
-        <v>0.36762859284368077</v>
+        <v>0.38610651746617819</v>
+      </c>
+      <c r="C17" s="0">
+        <v>-0.0045333304256023263</v>
+      </c>
+      <c r="D17" s="0">
+        <v>-0.0016357979521704341</v>
+      </c>
+      <c r="E17" s="0">
+        <v>0.0022552288384548799</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.30676693839778701</v>
+        <v>0.29343531929797723</v>
       </c>
       <c r="B18" s="0">
-        <v>0.36368379622433916</v>
+        <v>0.38137053690542294</v>
+      </c>
+      <c r="C18" s="0">
+        <v>-0.0045489614219336762</v>
+      </c>
+      <c r="D18" s="0">
+        <v>-0.0015139849938156022</v>
+      </c>
+      <c r="E18" s="0">
+        <v>0.0020605172311120232</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.30952878588079841</v>
+        <v>0.29661468778499001</v>
       </c>
       <c r="B19" s="0">
-        <v>0.36019335644332212</v>
+        <v>0.37704345072008771</v>
+      </c>
+      <c r="C19" s="0">
+        <v>-0.0045621215652251034</v>
+      </c>
+      <c r="D19" s="0">
+        <v>-0.0014010545194685364</v>
+      </c>
+      <c r="E19" s="0">
+        <v>0.0018798545072781572</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.31202000559038479</v>
+        <v>0.29955690227587395</v>
       </c>
       <c r="B20" s="0">
-        <v>0.35710679482224378</v>
+        <v>0.37309575625480357</v>
+      </c>
+      <c r="C20" s="0">
+        <v>-0.0045731818510471502</v>
+      </c>
+      <c r="D20" s="0">
+        <v>-0.0012960618659416043</v>
+      </c>
+      <c r="E20" s="0">
+        <v>0.001713031677146315</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.31426420120669035</v>
+        <v>0.3022786321943513</v>
       </c>
       <c r="B21" s="0">
-        <v>0.35437833279946895</v>
+        <v>0.36949838973279631</v>
+      </c>
+      <c r="C21" s="0">
+        <v>-0.0045824632752360511</v>
+      </c>
+      <c r="D21" s="0">
+        <v>-0.0011982992530971057</v>
+      </c>
+      <c r="E21" s="0">
+        <v>0.0015595843724783287</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.31628335705124483</v>
+        <v>0.30479506062585521</v>
       </c>
       <c r="B22" s="0">
-        <v>0.35196679405574544</v>
+        <v>0.36622326255059179</v>
+      </c>
+      <c r="C22" s="0">
+        <v>-0.0045902419210832688</v>
+      </c>
+      <c r="D22" s="0">
+        <v>-0.0011072126867474885</v>
+      </c>
+      <c r="E22" s="0">
+        <v>0.0014188814224344731</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.31809791636444701</v>
+        <v>0.30712020726802491</v>
       </c>
       <c r="B23" s="0">
-        <v>0.34983537162251782</v>
+        <v>0.3632436115634794</v>
+      </c>
+      <c r="C23" s="0">
+        <v>-0.0045967540187350792</v>
+      </c>
+      <c r="D23" s="0">
+        <v>-0.0010223479596845053</v>
+      </c>
+      <c r="E23" s="0">
+        <v>0.0012901901235816415</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.31972683856441225</v>
+        <v>0.30926713798336236</v>
       </c>
       <c r="B24" s="0">
-        <v>0.34795131846654065</v>
+        <v>0.36053421230395793</v>
+      </c>
+      <c r="C24" s="0">
+        <v>-0.004602200804090139</v>
+      </c>
+      <c r="D24" s="0">
+        <v>-0.0009433157617075652</v>
+      </c>
+      <c r="E24" s="0">
+        <v>0.0011727240777149733</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.32118765104193348</v>
+        <v>0.31124810108294826</v>
       </c>
       <c r="B25" s="0">
-        <v>0.34628560170109846</v>
+        <v>0.35807149174075648</v>
+      </c>
+      <c r="C25" s="0">
+        <v>-0.0046067530576055764</v>
+      </c>
+      <c r="D25" s="0">
+        <v>-0.00086976935385096876</v>
+      </c>
+      <c r="E25" s="0">
+        <v>0.0010656778821613727</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.322496503021652</v>
+        <v>0.31307461672603532</v>
       </c>
       <c r="B26" s="0">
-        <v>0.34481254733709754</v>
+        <v>0.3558335681882176</v>
+      </c>
+      <c r="C26" s="0">
+        <v>-0.0046105552521511477</v>
+      </c>
+      <c r="D26" s="0">
+        <v>-0.00080139049763639641</v>
+      </c>
+      <c r="E26" s="0">
+        <v>0.00096825185871076552</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.3236682244615397</v>
+        <v>0.31475753677107177</v>
       </c>
       <c r="B27" s="0">
-        <v>0.34350949297209293</v>
+        <v>0.35380023928492499</v>
+      </c>
+      <c r="C27" s="0">
+        <v>-0.0046137292780248588</v>
+      </c>
+      <c r="D27" s="0">
+        <v>-0.00073788078927215783</v>
+      </c>
+      <c r="E27" s="0">
+        <v>0.00087966922947479292</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.32471639046052697</v>
+        <v>0.31630708642854327</v>
       </c>
       <c r="B28" s="0">
-        <v>0.34235645904919559</v>
+        <v>0.3519529339030279</v>
+      </c>
+      <c r="C28" s="0">
+        <v>-0.0046163777417808048</v>
+      </c>
+      <c r="D28" s="0">
+        <v>-0.00067895650679874325</v>
+      </c>
+      <c r="E28" s="0">
+        <v>0.00079918758275743934</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.32565339036131735</v>
+        <v>0.31773289509282066</v>
       </c>
       <c r="B29" s="0">
-        <v>0.34133584458747462</v>
+        <v>0.3502746399792373</v>
+      </c>
+      <c r="C29" s="0">
+        <v>-0.0046185868548580481</v>
+      </c>
+      <c r="D29" s="0">
+        <v>-0.00062434571128199001</v>
+      </c>
+      <c r="E29" s="0">
+        <v>0.00072610605095522335</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.32649050016977771</v>
+        <v>0.31904402108651281</v>
       </c>
       <c r="B30" s="0">
-        <v>0.34043215005471233</v>
+        <v>0.34874981727223131</v>
+      </c>
+      <c r="C30" s="0">
+        <v>-0.0046204289399797739</v>
+      </c>
+      <c r="D30" s="0">
+        <v>-0.00057378676417225993</v>
+      </c>
+      <c r="E30" s="0">
+        <v>0.00065976930199711931</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.32723795675892037</v>
+        <v>0.32024897329127455</v>
       </c>
       <c r="B31" s="0">
-        <v>0.33963172791517082</v>
+        <v>0.34736430173803734</v>
+      </c>
+      <c r="C31" s="0">
+        <v>-0.0046219645897579084</v>
+      </c>
+      <c r="D31" s="0">
+        <v>-0.00052702770459864962</v>
+      </c>
+      <c r="E31" s="0">
+        <v>0.00059956919776685269</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.32790503239842778</v>
+        <v>0.32135573147093172</v>
       </c>
       <c r="B32" s="0">
-        <v>0.3389225600308427</v>
+        <v>0.34610520642272696</v>
+      </c>
+      <c r="C32" s="0">
+        <v>-0.0046232445144879977</v>
+      </c>
+      <c r="D32" s="0">
+        <v>-0.00048382611975775897</v>
+      </c>
+      <c r="E32" s="0">
+        <v>0.00054494477875403902</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.32850010833674737</v>
+        <v>0.32237176632242304</v>
       </c>
       <c r="B33" s="0">
-        <v>0.33829406029251957</v>
+        <v>0.34496082238734349</v>
+      </c>
+      <c r="C33" s="0">
+        <v>-0.004624311116032967</v>
+      </c>
+      <c r="D33" s="0">
+        <v>-0.00044394926938799706</v>
+      </c>
+      <c r="E33" s="0">
+        <v>0.00049538108118787894</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.32903074639407526</v>
+        <v>0.32330405978813781</v>
       </c>
       <c r="B34" s="0">
-        <v>0.3377369004347397</v>
+        <v>0.34392052211684893</v>
+      </c>
+      <c r="C34" s="0">
+        <v>-0.0046251998229444556</v>
+      </c>
+      <c r="D34" s="0">
+        <v>-0.00040717431175704699</v>
+      </c>
+      <c r="E34" s="0">
+        <v>0.00045040717212757597</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.32950375776145946</v>
+        <v>0.32415912584282763</v>
       </c>
       <c r="B35" s="0">
-        <v>0.33724285682042021</v>
+        <v>0.34297466705538104</v>
+      </c>
+      <c r="C35" s="0">
+        <v>-0.004625940219263578</v>
+      </c>
+      <c r="D35" s="0">
+        <v>-0.00037328853697715658</v>
+      </c>
+      <c r="E35" s="0">
+        <v>0.00040959369277161067</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.32992526842199521</v>
+        <v>0.32494303177047967</v>
       </c>
       <c r="B36" s="0">
-        <v>0.33680467597636182</v>
+        <v>0.34211452030056066</v>
+      </c>
+      <c r="C36" s="0">
+        <v>-0.0046265569962725892</v>
+      </c>
+      <c r="D36" s="0">
+        <v>-0.00034208955271786828</v>
+      </c>
+      <c r="E36" s="0">
+        <v>0.00037255012550578559</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.3303007808039623</v>
+        <v>0.32566141983118718</v>
       </c>
       <c r="B37" s="0">
-        <v>0.33641595675619596</v>
+        <v>0.34133216503699854</v>
+      </c>
+      <c r="C37" s="0">
+        <v>-0.0046270707531657195</v>
+      </c>
+      <c r="D37" s="0">
+        <v>-0.00031338539351870309</v>
+      </c>
+      <c r="E37" s="0">
+        <v>0.00033892194191021546</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.33063523143884765</v>
+        <v>0.32631952915757645</v>
       </c>
       <c r="B38" s="0">
-        <v>0.33607104715890146</v>
+        <v>0.34062042895898709</v>
+      </c>
+      <c r="C38" s="0">
+        <v>-0.0046274986693816168</v>
+      </c>
+      <c r="D38" s="0">
+        <v>-0.00028699454201074753</v>
+      </c>
+      <c r="E38" s="0">
+        <v>0.00030838774384284173</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.33093304452960054</v>
+        <v>0.32692221769579904</v>
       </c>
       <c r="B39" s="0">
-        <v>0.33576495400935918</v>
+        <v>0.33997281469691709</v>
+      </c>
+      <c r="C39" s="0">
+        <v>-0.004627855068316181</v>
+      </c>
+      <c r="D39" s="0">
+        <v>-0.00026274586124682558</v>
+      </c>
+      <c r="E39" s="0">
+        <v>0.00028065647516731934</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.3311981814384683</v>
+        <v>0.32747398400441735</v>
       </c>
       <c r="B40" s="0">
-        <v>0.33549326389347045</v>
+        <v>0.33938343609906574</v>
+      </c>
+      <c r="C40" s="0">
+        <v>-0.0046281518893789095</v>
+      </c>
+      <c r="D40" s="0">
+        <v>-0.00024047844396472839</v>
+      </c>
+      <c r="E40" s="0">
+        <v>0.00025546475553091946</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0.33143418618273146</v>
+        <v>0.3279789887367433</v>
       </c>
       <c r="B41" s="0">
-        <v>0.33525207392230444</v>
+        <v>0.3388469601124508</v>
+      </c>
+      <c r="C41" s="0">
+        <v>-0.0046283990828942852</v>
+      </c>
+      <c r="D41" s="0">
+        <v>-0.0002200413883249458</v>
+      </c>
+      <c r="E41" s="0">
+        <v>0.00023257436805448894</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>0.33164422708431934</v>
+        <v>0.32844107565222569</v>
       </c>
       <c r="B42" s="0">
-        <v>0.33503793107069563</v>
+        <v>0.3383585539395364</v>
+      </c>
+      <c r="C42" s="0">
+        <v>-0.0046286049401838437</v>
+      </c>
+      <c r="D42" s="0">
+        <v>-0.00020129351142704477</v>
+      </c>
+      <c r="E42" s="0">
+        <v>0.00021176991842890291</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>0.33183113475932324</v>
+        <v>0.32886379202622246</v>
       </c>
       <c r="B43" s="0">
-        <v>0.3348477789921514</v>
+        <v>0.33791383711083572</v>
+      </c>
+      <c r="C43" s="0">
+        <v>-0.0046287763692800573</v>
+      </c>
+      <c r="D43" s="0">
+        <v>-0.00018410301238324517</v>
+      </c>
+      <c r="E43" s="0">
+        <v>0.00019285667255567601</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>0.3319974366592226</v>
+        <v>0.3292504083522273</v>
       </c>
       <c r="B44" s="0">
-        <v>0.3346789113524728</v>
+        <v>0.33750883809846882</v>
+      </c>
+      <c r="C44" s="0">
+        <v>-0.0046289191250981927</v>
+      </c>
+      <c r="D44" s="0">
+        <v>-0.00016834709638464257</v>
+      </c>
+      <c r="E44" s="0">
+        <v>0.00017565857258679957</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>0.33214538839019436</v>
+        <v>0.32960393725463505</v>
       </c>
       <c r="B45" s="0">
-        <v>0.33452893084912094</v>
+        <v>0.33713995509603656</v>
+      </c>
+      <c r="C45" s="0">
+        <v>-0.0046290380015004198</v>
+      </c>
+      <c r="D45" s="0">
+        <v>-0.00015391157035875291</v>
+      </c>
+      <c r="E45" s="0">
+        <v>0.00016001642626641693</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>0.3322770020427559</v>
+        <v>0.32992715155238844</v>
       </c>
       <c r="B46" s="0">
-        <v>0.33439571319284789</v>
+        <v>0.3368039206008771</v>
+      </c>
+      <c r="C46" s="0">
+        <v>-0.0046291369915009775</v>
+      </c>
+      <c r="D46" s="0">
+        <v>-0.00014069041971335322</v>
+      </c>
+      <c r="E46" s="0">
+        <v>0.00014578626126657973</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>0.33239407176333319</v>
+        <v>0.33022260143378651</v>
       </c>
       <c r="B47" s="0">
-        <v>0.33427737542365865</v>
+        <v>0.33649776945221727</v>
+      </c>
+      <c r="C47" s="0">
+        <v>-0.0046292194208556459</v>
+      </c>
+      <c r="D47" s="0">
+        <v>-0.00012858537444303264</v>
+      </c>
+      <c r="E47" s="0">
+        <v>0.00013283783428329199</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>0.33249819679390946</v>
+        <v>0.33049263072011686</v>
       </c>
       <c r="B48" s="0">
-        <v>0.33417224801616607</v>
+        <v>0.33621881000022236</v>
+      </c>
+      <c r="C48" s="0">
+        <v>-0.0046292880594290247</v>
+      </c>
+      <c r="D48" s="0">
+        <v>-0.0001175054716419377</v>
+      </c>
+      <c r="E48" s="0">
+        <v>0.00012105328366349144</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>0.33259080219709652</v>
+        <v>0.33073939221056492</v>
       </c>
       <c r="B49" s="0">
-        <v>0.33407885030126877</v>
+        <v>0.335964598104529</v>
+      </c>
+      <c r="C49" s="0">
+        <v>-0.0046293452140167453</v>
+      </c>
+      <c r="D49" s="0">
+        <v>-0.00010736662028425908</v>
+      </c>
+      <c r="E49" s="0">
+        <v>0.00011032591399577629</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>0.3326731574729031</v>
+        <v>0.33096486211316184</v>
       </c>
       <c r="B50" s="0">
-        <v>0.33399586879319737</v>
+        <v>0.33573291368513786</v>
+      </c>
+      <c r="C50" s="0">
+        <v>-0.0046293928056975134</v>
+      </c>
+      <c r="D50" s="0">
+        <v>-9.809117304027809e-05</v>
+      </c>
+      <c r="E50" s="0">
+        <v>0.00010055910121572337</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>0.33274639326101241</v>
+        <v>0.33117085357654641</v>
       </c>
       <c r="B51" s="0">
-        <v>0.33392213806460308</v>
+        <v>0.33552173957258485</v>
+      </c>
+      <c r="C51" s="0">
+        <v>-0.0046294324342841184</v>
+      </c>
+      <c r="D51" s="0">
+        <v>-8.9607508911265787e-05</v>
+      </c>
+      <c r="E51" s="0">
+        <v>9.1665307194149781e-05</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>0.33281151630919181</v>
+        <v>0.33135902934526007</v>
       </c>
       <c r="B52" s="0">
-        <v>0.33385662385865406</v>
+        <v>0.33532924242747714</v>
+      </c>
+      <c r="C52" s="0">
+        <v>-0.0046294654320188713</v>
+      </c>
+      <c r="D52" s="0">
+        <v>-8.184962959886799e-05</v>
+      </c>
+      <c r="E52" s="0">
+        <v>8.3565193384163572e-05</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0">
+        <v>0.33153091356741771</v>
+      </c>
+      <c r="B53" s="0">
+        <v>0.33515375552137039</v>
+      </c>
+      <c r="C53" s="0">
+        <v>-0.0046294929083040247</v>
+      </c>
+      <c r="D53" s="0">
+        <v>-7.4756771773765163e-05</v>
+      </c>
+      <c r="E53" s="0">
+        <v>7.6186823816333515e-05</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0">
+        <v>0.33168790278814264</v>
+      </c>
+      <c r="B54" s="0">
+        <v>0.3349937631913561</v>
+      </c>
+      <c r="C54" s="0">
+        <v>-0.0046295157869610422</v>
+      </c>
+      <c r="D54" s="0">
+        <v>-6.8273036769067597e-05</v>
+      </c>
+      <c r="E54" s="0">
+        <v>6.9464948493865031e-05</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0">
+        <v>0.33183127616535768</v>
+      </c>
+      <c r="B55" s="0">
+        <v>0.33484788679951899</v>
+      </c>
+      <c r="C55" s="0">
+        <v>-0.0046295348372645297</v>
+      </c>
+      <c r="D55" s="0">
+        <v>-6.2347038687536604e-05</v>
+      </c>
+      <c r="E55" s="0">
+        <v>6.3340359010927161e-05</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0">
+        <v>0.3319622049466015</v>
+      </c>
+      <c r="B56" s="0">
+        <v>0.33471487204559602</v>
+      </c>
+      <c r="C56" s="0">
+        <v>-0.0046295506997895957</v>
+      </c>
+      <c r="D56" s="0">
+        <v>-5.6931571468125941e-05</v>
+      </c>
+      <c r="E56" s="0">
+        <v>5.7759308969902723e-05</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0">
+        <v>0.33208176124668459</v>
+      </c>
+      <c r="B57" s="0">
+        <v>0.33459357749675922</v>
+      </c>
+      <c r="C57" s="0">
+        <v>-0.0046295639079384984</v>
+      </c>
+      <c r="D57" s="0">
+        <v>-5.1983295096709459e-05</v>
+      </c>
+      <c r="E57" s="0">
+        <v>5.267299249014229e-05</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0">
+        <v>0.33219092616638768</v>
+      </c>
+      <c r="B58" s="0">
+        <v>0.33448296421252993</v>
+      </c>
+      <c r="C58" s="0">
+        <v>-0.0046295749058681279</v>
+      </c>
+      <c r="D58" s="0">
+        <v>-4.7462440856411992e-05</v>
+      </c>
+      <c r="E58" s="0">
+        <v>4.8037074771599408e-05</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0">
+        <v>0.33229059729218613</v>
+      </c>
+      <c r="B59" s="0">
+        <v>0.33438208635550959</v>
+      </c>
+      <c r="C59" s="0">
+        <v>-0.0046295840634196905</v>
+      </c>
+      <c r="D59" s="0">
+        <v>-4.3332535285857399e-05</v>
+      </c>
+      <c r="E59" s="0">
+        <v>4.3811269296367694e-05</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0">
+        <v>0.33238159561628644</v>
+      </c>
+      <c r="B60" s="0">
+        <v>0.33429008268998722</v>
+      </c>
+      <c r="C60" s="0">
+        <v>-0.0046295916885515202</v>
+      </c>
+      <c r="D60" s="0">
+        <v>-3.9560142339016557e-05</v>
+      </c>
+      <c r="E60" s="0">
+        <v>3.9958956817340296e-05</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0">
+        <v>0.33246467191519835</v>
+      </c>
+      <c r="B61" s="0">
+        <v>0.33420616888067078</v>
+      </c>
+      <c r="C61" s="0">
+        <v>-0.0046295980376924121</v>
+      </c>
+      <c r="D61" s="0">
+        <v>-3.6114623110018729e-05</v>
+      </c>
+      <c r="E61" s="0">
+        <v>3.6446841797162233e-05</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0">
+        <v>0.33254051262372941</v>
+      </c>
+      <c r="B62" s="0">
+        <v>0.33412963051289674</v>
+      </c>
+      <c r="C62" s="0">
+        <v>-0.0046296033243631088</v>
+      </c>
+      <c r="D62" s="0">
+        <v>-3.2967912392482812e-05</v>
+      </c>
+      <c r="E62" s="0">
+        <v>3.3244642424413995e-05</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0">
+        <v>0.33260974523975362</v>
+      </c>
+      <c r="B63" s="0">
+        <v>0.33405981676380547</v>
+      </c>
+      <c r="C63" s="0">
+        <v>-0.0046296077263555703</v>
+      </c>
+      <c r="D63" s="0">
+        <v>-3.0094311280245978e-05</v>
+      </c>
+      <c r="E63" s="0">
+        <v>3.0324810749549069e-05</v>
       </c>
     </row>
   </sheetData>
+  <printOptions horizontalCentered="false" verticalCentered="false" headings="false" gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.74791666666667" right="0.74791666666667" top="0.98402777777778" bottom="0.98402777777778" header="0.51181102362205" footer="0.51181102362205"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>